--- a/Lab6data.xlsx
+++ b/Lab6data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\Master\10 semester\(Medical tech)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AED56F1-C1E8-4D81-8AF0-4CA39BF2D792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD1A7FE-DB5F-4F03-AFDC-4608A0229D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="6">
   <si>
     <t>так</t>
+  </si>
+  <si>
+    <t>Вік</t>
+  </si>
+  <si>
+    <t>ВПЛ-інфекція (так/ ні)</t>
+  </si>
+  <si>
+    <t>Здорова особа</t>
+  </si>
+  <si>
+    <t>Стадія CINI</t>
+  </si>
+  <si>
+    <t>Стадія CINII / CIN III</t>
   </si>
 </sst>
 </file>
@@ -58,12 +73,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -130,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -149,6 +170,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,43 +457,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>17</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>19</v>
-      </c>
-      <c r="B3" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
@@ -475,22 +506,22 @@
     </row>
     <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>21</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5" t="s">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>21</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="5" t="s">
         <v>0</v>
@@ -501,13 +532,11 @@
       <c r="A6" s="4">
         <v>21</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -527,7 +556,9 @@
       <c r="A8" s="4">
         <v>21</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C8" s="5" t="s">
         <v>0</v>
       </c>
@@ -536,27 +567,27 @@
     </row>
     <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>22</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>22</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="E10" s="5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -574,10 +605,10 @@
         <v>22</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="C12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -585,19 +616,17 @@
         <v>22</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>22</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B14" s="6"/>
       <c r="C14" s="5" t="s">
         <v>0</v>
       </c>
@@ -619,9 +648,11 @@
     </row>
     <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>23</v>
-      </c>
-      <c r="B16" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C16" s="5" t="s">
         <v>0</v>
       </c>
@@ -644,10 +675,10 @@
         <v>23</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="C18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -666,15 +697,15 @@
         <v>23</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="5" t="s">
@@ -687,13 +718,11 @@
       <c r="A22" s="4">
         <v>24</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -713,7 +742,9 @@
       <c r="A24" s="4">
         <v>24</v>
       </c>
-      <c r="B24" s="6"/>
+      <c r="B24" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C24" s="6"/>
       <c r="D24" s="5" t="s">
         <v>0</v>
@@ -725,34 +756,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="6"/>
-      <c r="C25" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <v>25</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -770,25 +801,25 @@
       <c r="A29" s="4">
         <v>25</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B30" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="E30" s="5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
@@ -827,24 +858,24 @@
       <c r="A34" s="4">
         <v>25</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>26</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -862,9 +893,7 @@
       <c r="A37" s="4">
         <v>26</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B37" s="6"/>
       <c r="C37" s="5" t="s">
         <v>0</v>
       </c>
@@ -878,17 +907,19 @@
       <c r="B38" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="C38" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>27</v>
-      </c>
-      <c r="B39" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C39" s="6"/>
       <c r="D39" s="5" t="s">
         <v>0</v>
@@ -900,10 +931,10 @@
         <v>27</v>
       </c>
       <c r="B40" s="6"/>
-      <c r="C40" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -922,11 +953,11 @@
         <v>27</v>
       </c>
       <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
+      <c r="C42" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="D42" s="6"/>
-      <c r="E42" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
@@ -943,18 +974,16 @@
       <c r="A44" s="4">
         <v>27</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="E44" s="5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>0</v>
@@ -969,7 +998,9 @@
       <c r="A46" s="4">
         <v>28</v>
       </c>
-      <c r="B46" s="6"/>
+      <c r="B46" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C46" s="5" t="s">
         <v>0</v>
       </c>
@@ -980,46 +1011,46 @@
       <c r="A47" s="4">
         <v>28</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6"/>
       <c r="E47" s="6"/>
     </row>
     <row r="48" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>28</v>
       </c>
-      <c r="B48" s="6"/>
+      <c r="B48" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="D48" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>28</v>
       </c>
       <c r="B49" s="6"/>
-      <c r="C49" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="C49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
+      <c r="E49" s="5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>28</v>
       </c>
       <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="C50" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6"/>
       <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1027,21 +1058,21 @@
         <v>28</v>
       </c>
       <c r="B51" s="6"/>
-      <c r="C51" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="C52" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="6"/>
       <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1050,10 +1081,10 @@
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="D53" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
@@ -1061,29 +1092,29 @@
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>29</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>29</v>
       </c>
-      <c r="B56" s="6"/>
+      <c r="B56" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C56" s="5" t="s">
         <v>0</v>
       </c>
@@ -1094,9 +1125,7 @@
       <c r="A57" s="4">
         <v>29</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B57" s="6"/>
       <c r="C57" s="5" t="s">
         <v>0</v>
       </c>
@@ -1105,9 +1134,11 @@
     </row>
     <row r="58" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>30</v>
-      </c>
-      <c r="B58" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C58" s="5" t="s">
         <v>0</v>
       </c>
@@ -1118,33 +1149,31 @@
       <c r="A59" s="4">
         <v>30</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6"/>
       <c r="E59" s="6"/>
     </row>
     <row r="60" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>30</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="6"/>
+      <c r="B60" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>30</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B61" s="6"/>
       <c r="C61" s="5" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +1184,9 @@
       <c r="A62" s="4">
         <v>30</v>
       </c>
-      <c r="B62" s="6"/>
+      <c r="B62" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C62" s="5" t="s">
         <v>0</v>
       </c>
@@ -1166,34 +1197,34 @@
       <c r="A63" s="4">
         <v>30</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="6"/>
       <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
+      <c r="D64" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>31</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B65" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
     </row>
@@ -1201,9 +1232,7 @@
       <c r="A66" s="4">
         <v>31</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B66" s="6"/>
       <c r="C66" s="5" t="s">
         <v>0</v>
       </c>
@@ -1212,9 +1241,11 @@
     </row>
     <row r="67" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>32</v>
-      </c>
-      <c r="B67" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C67" s="5" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +1298,7 @@
     </row>
     <row r="72" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="5" t="s">
@@ -1291,9 +1322,7 @@
       <c r="A74" s="4">
         <v>33</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B74" s="6"/>
       <c r="C74" s="5" t="s">
         <v>0</v>
       </c>
@@ -1320,10 +1349,10 @@
       <c r="B76" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="C76" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="6"/>
       <c r="E76" s="6"/>
     </row>
     <row r="77" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1334,21 +1363,23 @@
         <v>0</v>
       </c>
       <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="D77" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="6"/>
     </row>
     <row r="78" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>33</v>
       </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B78" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="6"/>
       <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
+      <c r="E78" s="5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
@@ -1363,13 +1394,13 @@
     </row>
     <row r="80" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="C80" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="6"/>
       <c r="E80" s="6"/>
     </row>
     <row r="81" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1378,23 +1409,21 @@
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="D81" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="6"/>
     </row>
     <row r="82" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>34</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
       <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
+      <c r="E82" s="5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
@@ -1403,10 +1432,10 @@
       <c r="B83" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C83" s="6"/>
-      <c r="D83" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="C83" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="6"/>
       <c r="E83" s="6"/>
     </row>
     <row r="84" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1416,23 +1445,23 @@
       <c r="B84" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="E84" s="6"/>
     </row>
     <row r="85" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C85" s="6"/>
-      <c r="D85" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="C85" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" s="6"/>
       <c r="E85" s="6"/>
     </row>
     <row r="86" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1442,10 +1471,10 @@
       <c r="B86" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1458,23 +1487,23 @@
       <c r="C87" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="D87" s="6"/>
       <c r="E87" s="6"/>
     </row>
     <row r="88" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="C88" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="6"/>
     </row>
     <row r="89" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
@@ -1493,22 +1522,24 @@
       <c r="A90" s="4">
         <v>36</v>
       </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B90" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="6"/>
       <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
+      <c r="E90" s="5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>36</v>
       </c>
       <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="C91" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="6"/>
       <c r="E91" s="6"/>
     </row>
     <row r="92" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1517,23 +1548,21 @@
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="D92" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" s="6"/>
     </row>
     <row r="93" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>36</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
       <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
+      <c r="E93" s="5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
@@ -1542,11 +1571,11 @@
       <c r="B94" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C94" s="6"/>
+      <c r="C94" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="D94" s="6"/>
-      <c r="E94" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="E94" s="6"/>
     </row>
     <row r="95" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
@@ -1555,17 +1584,19 @@
       <c r="B95" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="C95" s="6"/>
       <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
+      <c r="E95" s="5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>37</v>
-      </c>
-      <c r="B96" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C96" s="5" t="s">
         <v>0</v>
       </c>
@@ -1577,15 +1608,15 @@
         <v>37</v>
       </c>
       <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="C97" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="6"/>
       <c r="E97" s="6"/>
     </row>
     <row r="98" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -1610,19 +1641,17 @@
         <v>38</v>
       </c>
       <c r="B100" s="6"/>
-      <c r="C100" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="E100" s="6"/>
     </row>
     <row r="101" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
-        <v>39</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B101" s="6"/>
       <c r="C101" s="5" t="s">
         <v>0</v>
       </c>
@@ -1636,21 +1665,23 @@
       <c r="B102" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C102" s="6"/>
-      <c r="D102" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="C102" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" s="6"/>
       <c r="E102" s="6"/>
     </row>
     <row r="103" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <v>40</v>
-      </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D103" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="6"/>
+      <c r="D103" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="E103" s="6"/>
     </row>
     <row r="104" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1658,11 +1689,11 @@
         <v>40</v>
       </c>
       <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
+      <c r="C104" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="D104" s="6"/>
-      <c r="E104" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="E104" s="6"/>
     </row>
     <row r="105" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
@@ -1670,10 +1701,10 @@
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
-      <c r="D105" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
@@ -1691,19 +1722,17 @@
         <v>40</v>
       </c>
       <c r="B107" s="6"/>
-      <c r="C107" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="E107" s="6"/>
     </row>
     <row r="108" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>40</v>
       </c>
-      <c r="B108" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B108" s="6"/>
       <c r="C108" s="5" t="s">
         <v>0</v>
       </c>
@@ -1717,11 +1746,11 @@
       <c r="B109" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C109" s="6"/>
+      <c r="C109" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="D109" s="6"/>
-      <c r="E109" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="E109" s="6"/>
     </row>
     <row r="110" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
@@ -1738,16 +1767,16 @@
     </row>
     <row r="111" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C111" s="6"/>
-      <c r="D111" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
@@ -1757,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="D112" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" s="6"/>
     </row>
     <row r="113" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
@@ -1792,25 +1821,25 @@
       <c r="A115" s="4">
         <v>41</v>
       </c>
-      <c r="B115" s="6"/>
-      <c r="C115" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B115" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" s="6"/>
       <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
+      <c r="E115" s="5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>41</v>
       </c>
-      <c r="B116" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C116" s="6"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="D116" s="6"/>
-      <c r="E116" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="E116" s="6"/>
     </row>
     <row r="117" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
@@ -1827,14 +1856,16 @@
     </row>
     <row r="118" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
-        <v>42</v>
-      </c>
-      <c r="B118" s="6"/>
-      <c r="C118" s="5" t="s">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" s="6"/>
       <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
+      <c r="E118" s="5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
@@ -1860,36 +1891,36 @@
     </row>
     <row r="121" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="C121" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121" s="6"/>
       <c r="E121" s="6"/>
     </row>
     <row r="122" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>43</v>
       </c>
-      <c r="B122" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D122" s="6"/>
-      <c r="E122" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E122" s="6"/>
     </row>
     <row r="123" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>43</v>
       </c>
-      <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
+      <c r="B123" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="D123" s="6"/>
       <c r="E123" s="5" t="s">
         <v>0</v>
@@ -1908,33 +1939,31 @@
     </row>
     <row r="125" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
-      <c r="D125" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>45</v>
       </c>
       <c r="B126" s="6"/>
-      <c r="C126" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="E126" s="6"/>
     </row>
     <row r="127" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>45</v>
       </c>
-      <c r="B127" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B127" s="6"/>
       <c r="C127" s="5" t="s">
         <v>0</v>
       </c>
@@ -1945,7 +1974,9 @@
       <c r="A128" s="4">
         <v>45</v>
       </c>
-      <c r="B128" s="6"/>
+      <c r="B128" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C128" s="5" t="s">
         <v>0</v>
       </c>
@@ -1956,9 +1987,7 @@
       <c r="A129" s="4">
         <v>45</v>
       </c>
-      <c r="B129" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B129" s="6"/>
       <c r="C129" s="5" t="s">
         <v>0</v>
       </c>
@@ -1967,9 +1996,11 @@
     </row>
     <row r="130" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
-        <v>46</v>
-      </c>
-      <c r="B130" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C130" s="5" t="s">
         <v>0</v>
       </c>
@@ -1978,7 +2009,7 @@
     </row>
     <row r="131" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B131" s="6"/>
       <c r="C131" s="5" t="s">
@@ -1989,64 +2020,62 @@
     </row>
     <row r="132" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
-        <v>48</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C132" s="6"/>
-      <c r="D132" s="5" t="s">
-        <v>0</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B132" s="6"/>
+      <c r="C132" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" s="6"/>
       <c r="E132" s="6"/>
     </row>
     <row r="133" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>48</v>
       </c>
-      <c r="B133" s="6"/>
+      <c r="B133" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="D133" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E133" s="6"/>
     </row>
     <row r="134" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
-      <c r="D134" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="135" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>49</v>
       </c>
-      <c r="B135" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="B135" s="6"/>
       <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="D135" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E135" s="6"/>
     </row>
     <row r="136" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C136" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="C136" s="6"/>
       <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
+      <c r="E136" s="5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
@@ -2055,23 +2084,23 @@
       <c r="B137" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="C137" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D137" s="6"/>
       <c r="E137" s="6"/>
     </row>
     <row r="138" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C138" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="E138" s="6"/>
     </row>
     <row r="139" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2081,15 +2110,15 @@
       <c r="B139" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C139" s="6"/>
-      <c r="D139" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="C139" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D139" s="6"/>
       <c r="E139" s="6"/>
     </row>
     <row r="140" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>0</v>
@@ -2102,14 +2131,16 @@
     </row>
     <row r="141" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
-        <v>55</v>
-      </c>
-      <c r="B141" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="D141" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E141" s="6"/>
     </row>
     <row r="142" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
@@ -2124,18 +2155,18 @@
     </row>
     <row r="143" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
-      <c r="D143" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="5" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -2146,7 +2177,7 @@
     </row>
     <row r="145" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -2154,6 +2185,17 @@
         <v>0</v>
       </c>
       <c r="E145" s="6"/>
+    </row>
+    <row r="146" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="4">
+        <v>63</v>
+      </c>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E146" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
